--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1825">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6353,10 +6353,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP1直通礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6366,18 +6362,6 @@
   </si>
   <si>
     <t>1000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7885,6 +7869,16 @@
   </si>
   <si>
     <t>首充加赠2640万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币宝箱抽奖券",</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8109,7 +8103,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8360,6 +8354,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8759,16 +8756,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8825,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -10771,10 +10768,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomRight" activeCell="Y415" sqref="Y415:Z420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10840,7 +10837,7 @@
         <v>503</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1221</v>
@@ -14631,10 +14628,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="H67" s="72" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="L67" s="72">
         <v>-4</v>
@@ -14655,7 +14652,7 @@
         <v>88</v>
       </c>
       <c r="R67" s="73" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="W67" s="72" t="s">
         <v>547</v>
@@ -14693,7 +14690,7 @@
         <v>234</v>
       </c>
       <c r="H68" s="72" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="L68" s="72">
         <v>-4</v>
@@ -14714,7 +14711,7 @@
         <v>88</v>
       </c>
       <c r="R68" s="73" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="W68" s="72" t="s">
         <v>547</v>
@@ -14752,7 +14749,7 @@
         <v>236</v>
       </c>
       <c r="H69" s="72" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="L69" s="72">
         <v>-4</v>
@@ -14773,7 +14770,7 @@
         <v>88</v>
       </c>
       <c r="R69" s="73" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="W69" s="72" t="s">
         <v>547</v>
@@ -14811,7 +14808,7 @@
         <v>238</v>
       </c>
       <c r="H70" s="72" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="L70" s="72">
         <v>-4</v>
@@ -14870,7 +14867,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="L71" s="72">
         <v>-4</v>
@@ -14891,7 +14888,7 @@
         <v>88</v>
       </c>
       <c r="R71" s="73" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="W71" s="72" t="s">
         <v>547</v>
@@ -15225,7 +15222,7 @@
         <v>245</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15246,7 +15243,7 @@
         <v>502</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>547</v>
@@ -15264,10 +15261,10 @@
         <v>88</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15290,7 +15287,7 @@
         <v>246</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15311,7 +15308,7 @@
         <v>502</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>547</v>
@@ -15329,10 +15326,10 @@
         <v>88</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15488,7 +15485,7 @@
         <v>249</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15509,7 +15506,7 @@
         <v>502</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>547</v>
@@ -15527,10 +15524,10 @@
         <v>607</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -18254,7 +18251,7 @@
         <v>329</v>
       </c>
       <c r="H128" s="72" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="L128" s="72">
         <v>-10</v>
@@ -18275,7 +18272,7 @@
         <v>88</v>
       </c>
       <c r="R128" s="73" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="W128" s="72" t="s">
         <v>547</v>
@@ -18313,7 +18310,7 @@
         <v>537</v>
       </c>
       <c r="H129" s="72" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="L129" s="72">
         <v>-11</v>
@@ -18334,7 +18331,7 @@
         <v>88</v>
       </c>
       <c r="R129" s="73" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="W129" s="72" t="s">
         <v>547</v>
@@ -20939,7 +20936,7 @@
         <v>1234</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21007,7 +21004,7 @@
         <v>1236</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21075,7 +21072,7 @@
         <v>1237</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21143,7 +21140,7 @@
         <v>1239</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21211,7 +21208,7 @@
         <v>1240</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21279,7 +21276,7 @@
         <v>1241</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21347,7 +21344,7 @@
         <v>1242</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21415,7 +21412,7 @@
         <v>1243</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21483,7 +21480,7 @@
         <v>1244</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21551,7 +21548,7 @@
         <v>1246</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21619,7 +21616,7 @@
         <v>1247</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21687,7 +21684,7 @@
         <v>1248</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -21755,7 +21752,7 @@
         <v>1249</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -21823,7 +21820,7 @@
         <v>1250</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -21891,7 +21888,7 @@
         <v>1252</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -27616,7 +27613,7 @@
         <v>540</v>
       </c>
       <c r="H273" s="76" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="L273" s="76">
         <v>-10</v>
@@ -27637,7 +27634,7 @@
         <v>88</v>
       </c>
       <c r="R273" s="78" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="W273" s="76" t="s">
         <v>547</v>
@@ -30283,7 +30280,7 @@
         <v>821</v>
       </c>
       <c r="W315" s="5" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="X315" s="5">
         <v>9999999</v>
@@ -30743,7 +30740,7 @@
         <v>1061</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -30808,7 +30805,7 @@
         <v>1056</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -30873,7 +30870,7 @@
         <v>1057</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31065,7 +31062,7 @@
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31084,7 +31081,7 @@
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R328" s="47" t="s">
         <v>1092</v>
@@ -31148,7 +31145,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31167,10 +31164,10 @@
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R329" s="47" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
@@ -31231,7 +31228,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31250,10 +31247,10 @@
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R330" s="47" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
@@ -31314,7 +31311,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31333,10 +31330,10 @@
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R331" s="47" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
@@ -31397,7 +31394,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31416,10 +31413,10 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R332" s="47" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
@@ -31480,7 +31477,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31499,10 +31496,10 @@
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R333" s="47" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
@@ -31563,7 +31560,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31582,10 +31579,10 @@
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R334" s="47" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
@@ -31646,7 +31643,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -31665,10 +31662,10 @@
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R335" s="47" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
@@ -31729,7 +31726,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -31748,10 +31745,10 @@
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R336" s="47" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
@@ -31812,7 +31809,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -31831,10 +31828,10 @@
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="R337" s="47" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
@@ -34094,7 +34091,7 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="R369" s="10" t="s">
         <v>1269</v>
@@ -36021,7 +36018,7 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="R398" s="10" t="s">
         <v>1368</v>
@@ -36644,7 +36641,7 @@
         <v>1409</v>
       </c>
       <c r="J408" s="5" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="L408" s="5">
         <v>-31</v>
@@ -36665,7 +36662,7 @@
         <v>1419</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="W408" s="5" t="s">
         <v>1420</v>
@@ -36730,7 +36727,7 @@
         <v>1419</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="W409" s="5" t="s">
         <v>1421</v>
@@ -36860,7 +36857,7 @@
         <v>1419</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="W411" s="5" t="s">
         <v>1422</v>
@@ -36925,7 +36922,7 @@
         <v>1419</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="W412" s="5" t="s">
         <v>1423</v>
@@ -36969,7 +36966,7 @@
         <v>1414</v>
       </c>
       <c r="J413" s="5" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="L413" s="5">
         <v>-31</v>
@@ -36990,7 +36987,7 @@
         <v>1419</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="W413" s="5" t="s">
         <v>1421</v>
@@ -37037,7 +37034,7 @@
         <v>1425</v>
       </c>
       <c r="H414" s="72" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="L414" s="72">
         <v>-4</v>
@@ -37061,7 +37058,7 @@
         <v>1426</v>
       </c>
       <c r="W414" s="72" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="X414" s="74" t="s">
         <v>119</v>
@@ -37085,411 +37082,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:39">
-      <c r="A415" s="6">
+    <row r="415" spans="1:39" s="40" customFormat="1">
+      <c r="A415" s="40">
         <v>414</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415" s="40">
         <v>10331</v>
       </c>
-      <c r="F415" s="5">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
+      <c r="F415" s="40">
+        <v>1</v>
+      </c>
+      <c r="G415" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="40" t="s">
         <v>1430</v>
       </c>
-      <c r="J415" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L415" s="6">
+      <c r="J415" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L415" s="40">
         <v>-31</v>
       </c>
-      <c r="M415" s="5">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5">
-        <v>0</v>
-      </c>
-      <c r="O415" s="5" t="s">
+      <c r="M415" s="40">
+        <v>0</v>
+      </c>
+      <c r="N415" s="40">
+        <v>0</v>
+      </c>
+      <c r="O415" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P415" s="6">
+      <c r="P415" s="40">
         <v>600</v>
       </c>
-      <c r="Q415" s="5" t="s">
+      <c r="Q415" s="40" t="s">
         <v>1202</v>
       </c>
-      <c r="R415" s="48" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W415" s="6" t="s">
+      <c r="R415" s="41" t="s">
+        <v>1824</v>
+      </c>
+      <c r="W415" s="40" t="s">
         <v>1433</v>
       </c>
-      <c r="X415" s="14" t="s">
+      <c r="X415" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y415" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z415" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA415" s="6">
+      <c r="Y415" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z415" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA415" s="40">
         <v>49</v>
       </c>
-      <c r="AH415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM415" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:39">
-      <c r="A416" s="6">
+      <c r="AH415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM415" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:39" s="40" customFormat="1">
+      <c r="A416" s="40">
         <v>415</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416" s="40">
         <v>10332</v>
       </c>
-      <c r="F416" s="5">
-        <v>1</v>
-      </c>
-      <c r="G416" s="6" t="s">
+      <c r="F416" s="40">
+        <v>1</v>
+      </c>
+      <c r="G416" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="I416" s="6" t="s">
+      <c r="I416" s="40" t="s">
         <v>1431</v>
       </c>
-      <c r="J416" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L416" s="6">
+      <c r="J416" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L416" s="40">
         <v>-31</v>
       </c>
-      <c r="M416" s="5">
-        <v>0</v>
-      </c>
-      <c r="N416" s="5">
-        <v>0</v>
-      </c>
-      <c r="O416" s="5" t="s">
+      <c r="M416" s="40">
+        <v>0</v>
+      </c>
+      <c r="N416" s="40">
+        <v>0</v>
+      </c>
+      <c r="O416" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P416" s="6">
+      <c r="P416" s="40">
         <v>1800</v>
       </c>
-      <c r="Q416" s="5" t="s">
+      <c r="Q416" s="40" t="s">
         <v>1203</v>
       </c>
-      <c r="R416" s="48" t="s">
-        <v>1442</v>
-      </c>
-      <c r="W416" s="6" t="s">
+      <c r="R416" s="41" t="s">
+        <v>1824</v>
+      </c>
+      <c r="W416" s="40" t="s">
         <v>1433</v>
       </c>
-      <c r="X416" s="14" t="s">
+      <c r="X416" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y416" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z416" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA416" s="6">
+      <c r="Y416" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z416" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA416" s="40">
         <v>49</v>
       </c>
-      <c r="AH416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM416" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:39">
-      <c r="A417" s="5">
+      <c r="AH416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM416" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:39" s="40" customFormat="1">
+      <c r="A417" s="40">
         <v>416</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417" s="40">
         <v>10333</v>
       </c>
-      <c r="F417" s="5">
-        <v>1</v>
-      </c>
-      <c r="G417" s="6" t="s">
+      <c r="F417" s="40">
+        <v>1</v>
+      </c>
+      <c r="G417" s="40" t="s">
         <v>1429</v>
       </c>
-      <c r="I417" s="6" t="s">
+      <c r="I417" s="40" t="s">
         <v>1431</v>
       </c>
-      <c r="J417" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L417" s="6">
+      <c r="J417" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L417" s="40">
         <v>-31</v>
       </c>
-      <c r="M417" s="5">
-        <v>0</v>
-      </c>
-      <c r="N417" s="5">
-        <v>0</v>
-      </c>
-      <c r="O417" s="5" t="s">
+      <c r="M417" s="40">
+        <v>0</v>
+      </c>
+      <c r="N417" s="40">
+        <v>0</v>
+      </c>
+      <c r="O417" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P417" s="6">
+      <c r="P417" s="40">
         <v>4800</v>
       </c>
-      <c r="Q417" s="5" t="s">
+      <c r="Q417" s="40" t="s">
         <v>1204</v>
       </c>
-      <c r="R417" s="48" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W417" s="6" t="s">
+      <c r="R417" s="41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="W417" s="40" t="s">
         <v>1211</v>
       </c>
-      <c r="X417" s="14" t="s">
+      <c r="X417" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y417" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z417" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA417" s="6">
+      <c r="Y417" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z417" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA417" s="40">
         <v>49</v>
       </c>
-      <c r="AH417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM417" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:39">
-      <c r="A418" s="5">
+      <c r="AH417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM417" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:39" s="40" customFormat="1">
+      <c r="A418" s="40">
         <v>417</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418" s="40">
         <v>10334</v>
       </c>
-      <c r="F418" s="5">
-        <v>1</v>
-      </c>
-      <c r="G418" s="6" t="s">
+      <c r="F418" s="40">
+        <v>1</v>
+      </c>
+      <c r="G418" s="40" t="s">
         <v>1427</v>
       </c>
-      <c r="I418" s="6" t="s">
+      <c r="I418" s="40" t="s">
         <v>1432</v>
       </c>
-      <c r="J418" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L418" s="6">
+      <c r="J418" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L418" s="40">
         <v>-31</v>
       </c>
-      <c r="M418" s="5">
-        <v>0</v>
-      </c>
-      <c r="N418" s="5">
-        <v>0</v>
-      </c>
-      <c r="O418" s="5" t="s">
+      <c r="M418" s="40">
+        <v>0</v>
+      </c>
+      <c r="N418" s="40">
+        <v>0</v>
+      </c>
+      <c r="O418" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P418" s="6">
+      <c r="P418" s="40">
         <v>9800</v>
       </c>
-      <c r="Q418" s="5" t="s">
+      <c r="Q418" s="40" t="s">
         <v>1205</v>
       </c>
-      <c r="R418" s="48" t="s">
-        <v>1443</v>
-      </c>
-      <c r="W418" s="6" t="s">
+      <c r="R418" s="41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="W418" s="40" t="s">
         <v>1211</v>
       </c>
-      <c r="X418" s="14" t="s">
+      <c r="X418" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y418" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z418" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA418" s="6">
+      <c r="Y418" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z418" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA418" s="40">
         <v>50</v>
       </c>
-      <c r="AH418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM418" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:39">
-      <c r="A419" s="6">
+      <c r="AH418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM418" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:39" s="40" customFormat="1">
+      <c r="A419" s="40">
         <v>418</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419" s="40">
         <v>10335</v>
       </c>
-      <c r="F419" s="5">
-        <v>1</v>
-      </c>
-      <c r="G419" s="6" t="s">
+      <c r="F419" s="40">
+        <v>1</v>
+      </c>
+      <c r="G419" s="40" t="s">
         <v>1428</v>
       </c>
-      <c r="I419" s="6" t="s">
+      <c r="I419" s="40" t="s">
         <v>1432</v>
       </c>
-      <c r="J419" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L419" s="6">
+      <c r="J419" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L419" s="40">
         <v>-31</v>
       </c>
-      <c r="M419" s="5">
-        <v>0</v>
-      </c>
-      <c r="N419" s="5">
-        <v>0</v>
-      </c>
-      <c r="O419" s="5" t="s">
+      <c r="M419" s="40">
+        <v>0</v>
+      </c>
+      <c r="N419" s="40">
+        <v>0</v>
+      </c>
+      <c r="O419" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P419" s="6">
+      <c r="P419" s="40">
         <v>19800</v>
       </c>
-      <c r="Q419" s="5" t="s">
+      <c r="Q419" s="40" t="s">
         <v>1206</v>
       </c>
-      <c r="R419" s="48" t="s">
-        <v>1444</v>
-      </c>
-      <c r="W419" s="6" t="s">
+      <c r="R419" s="41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="W419" s="40" t="s">
         <v>1211</v>
       </c>
-      <c r="X419" s="14" t="s">
+      <c r="X419" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y419" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z419" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA419" s="6">
+      <c r="Y419" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z419" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA419" s="40">
         <v>50</v>
       </c>
-      <c r="AH419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM419" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:39">
-      <c r="A420" s="6">
+      <c r="AH419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM419" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:39" s="40" customFormat="1">
+      <c r="A420" s="40">
         <v>419</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420" s="40">
         <v>10336</v>
       </c>
-      <c r="F420" s="5">
-        <v>1</v>
-      </c>
-      <c r="G420" s="6" t="s">
+      <c r="F420" s="40">
+        <v>1</v>
+      </c>
+      <c r="G420" s="40" t="s">
         <v>1429</v>
       </c>
-      <c r="I420" s="6" t="s">
+      <c r="I420" s="40" t="s">
         <v>1432</v>
       </c>
-      <c r="J420" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L420" s="6">
+      <c r="J420" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L420" s="40">
         <v>-31</v>
       </c>
-      <c r="M420" s="5">
-        <v>0</v>
-      </c>
-      <c r="N420" s="5">
-        <v>0</v>
-      </c>
-      <c r="O420" s="5" t="s">
+      <c r="M420" s="40">
+        <v>0</v>
+      </c>
+      <c r="N420" s="40">
+        <v>0</v>
+      </c>
+      <c r="O420" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P420" s="6">
+      <c r="P420" s="40">
         <v>49800</v>
       </c>
-      <c r="Q420" s="5" t="s">
+      <c r="Q420" s="40" t="s">
         <v>1207</v>
       </c>
-      <c r="R420" s="48" t="s">
-        <v>1444</v>
-      </c>
-      <c r="W420" s="6" t="s">
+      <c r="R420" s="41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="W420" s="40" t="s">
         <v>1211</v>
       </c>
-      <c r="X420" s="14" t="s">
+      <c r="X420" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="Y420" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Z420" s="6">
-        <v>1604332799</v>
-      </c>
-      <c r="AA420" s="6">
+      <c r="Y420" s="40">
+        <v>1609200000</v>
+      </c>
+      <c r="Z420" s="40">
+        <v>1609775999</v>
+      </c>
+      <c r="AA420" s="40">
         <v>50</v>
       </c>
-      <c r="AH420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM420" s="5">
+      <c r="AH420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM420" s="40">
         <v>1</v>
       </c>
     </row>
@@ -37504,10 +37501,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J421" s="19" t="s">
         <v>1439</v>
-      </c>
-      <c r="J421" s="19" t="s">
-        <v>1440</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37525,13 +37522,13 @@
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37546,7 +37543,7 @@
         <v>1110</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37572,13 +37569,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="J422" s="6" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="L422" s="6">
         <v>-31</v>
@@ -37596,10 +37593,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="6" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="R422" s="48" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="W422" s="6" t="s">
         <v>547</v>
@@ -37640,13 +37637,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="J423" s="6" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="L423" s="6">
         <v>-31</v>
@@ -37664,10 +37661,10 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="R423" s="48" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="W423" s="6" t="s">
         <v>547</v>
@@ -37708,13 +37705,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J424" s="6" t="s">
         <v>1509</v>
-      </c>
-      <c r="I424" s="6" t="s">
-        <v>1505</v>
-      </c>
-      <c r="J424" s="6" t="s">
-        <v>1513</v>
       </c>
       <c r="L424" s="6">
         <v>-31</v>
@@ -37732,10 +37729,10 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="6" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="R424" s="48" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="W424" s="6" t="s">
         <v>547</v>
@@ -37776,10 +37773,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -37797,10 +37794,10 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="R425" s="48" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="W425" s="6" t="s">
         <v>596</v>
@@ -37832,10 +37829,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -37853,10 +37850,10 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="R426" s="48" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="W426" s="6" t="s">
         <v>596</v>
@@ -37888,10 +37885,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -37909,10 +37906,10 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="R427" s="48" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="W427" s="6" t="s">
         <v>596</v>
@@ -37944,10 +37941,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -37965,10 +37962,10 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="R428" s="48" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="W428" s="6" t="s">
         <v>596</v>
@@ -38000,10 +37997,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38021,10 +38018,10 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="R429" s="48" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="W429" s="6" t="s">
         <v>596</v>
@@ -38056,13 +38053,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38080,13 +38077,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="R430" s="47" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38124,13 +38121,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38148,10 +38145,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="R431" s="47" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>550</v>
@@ -38192,13 +38189,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="I432" s="43" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38216,10 +38213,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="R432" s="47" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>550</v>
@@ -38260,13 +38257,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38284,10 +38281,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="R433" s="47" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>550</v>
@@ -38328,13 +38325,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J434" s="5" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="L434" s="5">
         <v>-31</v>
@@ -38352,10 +38349,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="R434" s="10" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="W434" s="5" t="s">
         <v>550</v>
@@ -38393,13 +38390,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J435" s="5" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="L435" s="5">
         <v>-31</v>
@@ -38417,10 +38414,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="R435" s="10" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="W435" s="5" t="s">
         <v>550</v>
@@ -38458,13 +38455,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="L436" s="5">
         <v>-31</v>
@@ -38482,10 +38479,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="R436" s="10" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="W436" s="5" t="s">
         <v>550</v>
@@ -38523,13 +38520,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="L437" s="5">
         <v>-31</v>
@@ -38547,10 +38544,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="R437" s="10" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="W437" s="5" t="s">
         <v>550</v>
@@ -38588,13 +38585,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="L438" s="5">
         <v>-31</v>
@@ -38612,10 +38609,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="5" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="R438" s="10" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="W438" s="5" t="s">
         <v>550</v>
@@ -38653,13 +38650,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J439" s="5" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="L439" s="5">
         <v>-31</v>
@@ -38677,10 +38674,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="5" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="R439" s="10" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="W439" s="5" t="s">
         <v>550</v>
@@ -38718,13 +38715,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J440" s="5" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="L440" s="5">
         <v>-31</v>
@@ -38736,19 +38733,19 @@
         <v>0</v>
       </c>
       <c r="O440" s="5" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="P440" s="5">
         <v>99800</v>
       </c>
       <c r="Q440" s="5" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="R440" s="10" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="W440" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="X440" s="5">
         <v>9999999</v>
@@ -38783,10 +38780,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="J441" s="5" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="L441" s="5">
         <v>-31</v>
@@ -38804,13 +38801,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="R441" s="10" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="W441" s="5" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X441" s="5">
         <v>9999999</v>
@@ -38845,10 +38842,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="J442" s="5" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="L442" s="5">
         <v>-31</v>
@@ -38866,13 +38863,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R442" s="10" t="s">
         <v>1533</v>
       </c>
-      <c r="R442" s="10" t="s">
-        <v>1537</v>
-      </c>
       <c r="W442" s="5" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X442" s="5">
         <v>9999999</v>
@@ -38907,10 +38904,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="J443" s="5" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="L443" s="5">
         <v>-31</v>
@@ -38928,13 +38925,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="R443" s="10" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="W443" s="5" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X443" s="5">
         <v>9999999</v>
@@ -38969,10 +38966,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="J444" s="5" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="L444" s="5">
         <v>-31</v>
@@ -38990,13 +38987,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="R444" s="10" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X444" s="5">
         <v>9999999</v>
@@ -39031,10 +39028,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="J445" s="5" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="L445" s="5">
         <v>-31</v>
@@ -39052,13 +39049,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="R445" s="10" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="W445" s="5" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="X445" s="5">
         <v>9999999</v>
@@ -39093,10 +39090,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="J446" s="5" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="L446" s="5">
         <v>-31</v>
@@ -39114,13 +39111,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="R446" s="10" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="W446" s="5" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="X446" s="5">
         <v>9999999</v>
@@ -39155,13 +39152,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="J447" s="54" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="L447" s="54">
         <v>-31</v>
@@ -39179,10 +39176,10 @@
         <v>800</v>
       </c>
       <c r="Q447" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R447" s="55" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="W447" s="5" t="s">
         <v>594</v>
@@ -39223,13 +39220,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="J448" s="54" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="L448" s="54">
         <v>-31</v>
@@ -39247,10 +39244,10 @@
         <v>800</v>
       </c>
       <c r="Q448" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R448" s="55" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="W448" s="5" t="s">
         <v>594</v>
@@ -39288,13 +39285,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="J449" s="54" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="L449" s="54">
         <v>-31</v>
@@ -39312,10 +39309,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R449" s="55" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>550</v>
@@ -39356,13 +39353,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="64" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="J450" s="64" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="L450" s="64">
         <v>-31</v>
@@ -39380,10 +39377,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R450" s="65" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>550</v>
@@ -39424,13 +39421,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="64" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="J451" s="64" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="L451" s="64">
         <v>-31</v>
@@ -39448,10 +39445,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R451" s="65" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>550</v>
@@ -39489,13 +39486,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="64" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="J452" s="64" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="L452" s="64">
         <v>-31</v>
@@ -39513,10 +39510,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R452" s="65" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>550</v>
@@ -39557,13 +39554,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="J453" s="54" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="L453" s="54">
         <v>-31</v>
@@ -39581,10 +39578,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R453" s="55" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>550</v>
@@ -39625,13 +39622,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="J454" s="54" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="L454" s="54">
         <v>-31</v>
@@ -39649,10 +39646,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R454" s="55" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>550</v>
@@ -39690,13 +39687,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="J455" s="54" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="L455" s="54">
         <v>-31</v>
@@ -39714,10 +39711,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R455" s="55" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>550</v>
@@ -39758,13 +39755,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="64" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="J456" s="64" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="L456" s="64">
         <v>-31</v>
@@ -39782,10 +39779,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R456" s="65" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>550</v>
@@ -39826,13 +39823,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="64" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="J457" s="64" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="L457" s="64">
         <v>-31</v>
@@ -39850,10 +39847,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R457" s="65" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>550</v>
@@ -39891,13 +39888,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="64" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="J458" s="64" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="L458" s="64">
         <v>-31</v>
@@ -39915,10 +39912,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R458" s="65" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>550</v>
@@ -39959,13 +39956,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="J459" s="54" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="L459" s="54">
         <v>-31</v>
@@ -39983,10 +39980,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R459" s="55" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>550</v>
@@ -40027,13 +40024,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="J460" s="54" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="L460" s="54">
         <v>-31</v>
@@ -40051,10 +40048,10 @@
         <v>49800</v>
       </c>
       <c r="Q460" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R460" s="55" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>550</v>
@@ -40092,13 +40089,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="J461" s="54" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="L461" s="54">
         <v>-31</v>
@@ -40116,10 +40113,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R461" s="55" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>550</v>
@@ -40160,13 +40157,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="64" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="J462" s="64" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="L462" s="64">
         <v>-31</v>
@@ -40184,10 +40181,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R462" s="65" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>550</v>
@@ -40228,13 +40225,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="64" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="J463" s="64" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="L463" s="64">
         <v>-31</v>
@@ -40252,13 +40249,13 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R463" s="65" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="W463" s="5" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="X463" s="64">
         <v>9999999</v>
@@ -40293,13 +40290,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="64" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="J464" s="64" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="L464" s="64">
         <v>-31</v>
@@ -40317,10 +40314,10 @@
         <v>99800</v>
       </c>
       <c r="Q464" s="64" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R464" s="65" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>550</v>
@@ -40361,13 +40358,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="J465" s="54" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="L465" s="54">
         <v>-31</v>
@@ -40385,10 +40382,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R465" s="55" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>550</v>
@@ -40429,13 +40426,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="J466" s="54" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="L466" s="54">
         <v>-31</v>
@@ -40453,10 +40450,10 @@
         <v>249800</v>
       </c>
       <c r="Q466" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="R466" s="55" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>550</v>
@@ -40494,13 +40491,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="J467" s="54" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="L467" s="54">
         <v>-31</v>
@@ -40518,10 +40515,10 @@
         <v>249800</v>
       </c>
       <c r="Q467" s="54" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="R467" s="55" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>550</v>
@@ -40562,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J468" s="58" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="L468" s="58">
         <v>-31</v>
@@ -40586,13 +40583,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R468" s="59" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="W468" s="58" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="X468" s="58">
         <v>9999999</v>
@@ -40627,13 +40624,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J469" s="58" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="L469" s="58">
         <v>-31</v>
@@ -40651,13 +40648,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R469" s="59" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="W469" s="58" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="X469" s="58">
         <v>9999999</v>
@@ -40692,13 +40689,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="I470" s="58" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J470" s="58" t="s">
         <v>1601</v>
-      </c>
-      <c r="J470" s="58" t="s">
-        <v>1605</v>
       </c>
       <c r="L470" s="58">
         <v>-31</v>
@@ -40716,13 +40713,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R470" s="59" t="s">
         <v>848</v>
       </c>
       <c r="W470" s="58" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="X470" s="58">
         <v>9999999</v>
@@ -40757,13 +40754,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="58" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="I471" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J471" s="58" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="L471" s="58">
         <v>-31</v>
@@ -40781,13 +40778,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R471" s="59" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="W471" s="58" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="X471" s="58">
         <v>9999999</v>
@@ -40822,13 +40819,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="58" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I472" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="I472" s="58" t="s">
-        <v>1601</v>
-      </c>
       <c r="J472" s="58" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="L472" s="58">
         <v>-31</v>
@@ -40846,13 +40843,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R472" s="59" t="s">
         <v>849</v>
       </c>
       <c r="W472" s="58" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="X472" s="58">
         <v>9999999</v>
@@ -40887,13 +40884,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="58" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="I473" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J473" s="58" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="L473" s="58">
         <v>-31</v>
@@ -40911,13 +40908,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R473" s="59" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="W473" s="58" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="X473" s="58">
         <v>9999999</v>
@@ -40952,13 +40949,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="68" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="I474" s="68" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="J474" s="68" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="L474" s="68">
         <v>-31</v>
@@ -40976,13 +40973,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="68" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R474" s="69" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="W474" s="68" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="X474" s="68">
         <v>9999999</v>
@@ -41017,13 +41014,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="68" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="I475" s="68" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="J475" s="68" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="L475" s="68">
         <v>-31</v>
@@ -41035,19 +41032,19 @@
         <v>0</v>
       </c>
       <c r="O475" s="68" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P475" s="68">
         <v>249800</v>
       </c>
       <c r="Q475" s="68" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="R475" s="69" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="W475" s="68" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="X475" s="68">
         <v>9999999</v>
@@ -41082,13 +41079,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="I476" s="70" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J476" s="70" t="s">
         <v>1679</v>
-      </c>
-      <c r="J476" s="70" t="s">
-        <v>1683</v>
       </c>
       <c r="L476" s="70">
         <v>-31</v>
@@ -41100,19 +41097,19 @@
         <v>0</v>
       </c>
       <c r="O476" s="70" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P476" s="70">
         <v>49800</v>
       </c>
       <c r="Q476" s="70" t="s">
+        <v>1684</v>
+      </c>
+      <c r="R476" s="71" t="s">
         <v>1688</v>
       </c>
-      <c r="R476" s="71" t="s">
+      <c r="W476" s="70" t="s">
         <v>1692</v>
-      </c>
-      <c r="W476" s="70" t="s">
-        <v>1696</v>
       </c>
       <c r="X476" s="70">
         <v>9999999</v>
@@ -41147,13 +41144,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="I477" s="70" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J477" s="70" t="s">
         <v>1680</v>
-      </c>
-      <c r="J477" s="70" t="s">
-        <v>1684</v>
       </c>
       <c r="L477" s="70">
         <v>-31</v>
@@ -41165,19 +41162,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="70" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P477" s="70">
         <v>19800</v>
       </c>
       <c r="Q477" s="70" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="R477" s="71" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W477" s="70" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="X477" s="70">
         <v>9999999</v>
@@ -41212,13 +41209,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="J478" s="70" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="L478" s="70">
         <v>-31</v>
@@ -41230,16 +41227,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="70" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P478" s="70">
         <v>9800</v>
       </c>
       <c r="Q478" s="70" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="R478" s="71" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="W478" s="70" t="s">
         <v>550</v>
@@ -41277,13 +41274,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I479" s="70" t="s">
         <v>1678</v>
       </c>
-      <c r="I479" s="70" t="s">
-        <v>1682</v>
-      </c>
       <c r="J479" s="70" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="L479" s="70">
         <v>-31</v>
@@ -41301,13 +41298,13 @@
         <v>4800</v>
       </c>
       <c r="Q479" s="70" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="R479" s="71" t="s">
+        <v>1691</v>
+      </c>
+      <c r="W479" s="70" t="s">
         <v>1695</v>
-      </c>
-      <c r="W479" s="70" t="s">
-        <v>1699</v>
       </c>
       <c r="X479" s="70">
         <v>9999999</v>
@@ -41342,10 +41339,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="81" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="J480" s="81" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="L480" s="81">
         <v>-31</v>
@@ -41363,13 +41360,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R480" s="82" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="W480" s="81" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X480" s="81">
         <v>9999999</v>
@@ -41407,7 +41404,7 @@
         <v>365</v>
       </c>
       <c r="J481" s="81" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="L481" s="81">
         <v>-31</v>
@@ -41425,13 +41422,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R481" s="82" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="W481" s="81" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X481" s="81">
         <v>9999999</v>
@@ -41469,7 +41466,7 @@
         <v>364</v>
       </c>
       <c r="J482" s="81" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="L482" s="81">
         <v>-31</v>
@@ -41487,13 +41484,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R482" s="82" t="s">
         <v>1368</v>
       </c>
       <c r="W482" s="81" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X482" s="81">
         <v>9999999</v>
@@ -41531,7 +41528,7 @@
         <v>363</v>
       </c>
       <c r="J483" s="81" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="L483" s="81">
         <v>-31</v>
@@ -41549,13 +41546,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R483" s="82" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="W483" s="81" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="X483" s="81">
         <v>9999999</v>
@@ -41590,10 +41587,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="81" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="J484" s="81" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="L484" s="81">
         <v>-31</v>
@@ -41611,10 +41608,10 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R484" s="82" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="W484" s="81" t="s">
         <v>594</v>
@@ -41652,10 +41649,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="81" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="J485" s="81" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="L485" s="81">
         <v>-31</v>
@@ -41673,10 +41670,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="81" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R485" s="82" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="W485" s="81" t="s">
         <v>594</v>
@@ -41717,10 +41714,10 @@
         <v>1386</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41738,7 +41735,7 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="R486" s="39" t="s">
         <v>1400</v>
@@ -41782,10 +41779,10 @@
         <v>1384</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41803,7 +41800,7 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="R487" s="39" t="s">
         <v>1396</v>
@@ -41847,10 +41844,10 @@
         <v>1383</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41868,7 +41865,7 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="R488" s="39" t="s">
         <v>1401</v>
@@ -41912,10 +41909,10 @@
         <v>1381</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -41933,7 +41930,7 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="R489" s="39" t="s">
         <v>1395</v>
@@ -41977,10 +41974,10 @@
         <v>1378</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -41998,7 +41995,7 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="R490" s="39" t="s">
         <v>1402</v>
@@ -42039,13 +42036,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42063,7 +42060,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="R491" s="39" t="s">
         <v>1397</v>
@@ -42107,10 +42104,10 @@
         <v>1373</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42128,7 +42125,7 @@
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="R492" s="39" t="s">
         <v>1398</v>
@@ -42586,7 +42583,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -42820,7 +42817,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -42834,7 +42831,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -42848,7 +42845,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -42918,7 +42915,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -42932,7 +42929,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -42946,7 +42943,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -42960,7 +42957,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -42974,7 +42971,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -42988,7 +42985,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -43002,7 +42999,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -43016,7 +43013,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -43030,7 +43027,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -43044,7 +43041,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -43058,7 +43055,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -43072,7 +43069,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -43086,7 +43083,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -43100,7 +43097,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -43114,7 +43111,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
@@ -43218,7 +43215,7 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>30</v>
@@ -43301,10 +43298,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="T2" s="33" t="s">
         <v>1021</v>
@@ -43372,10 +43369,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>1021</v>
@@ -43443,10 +43440,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>1022</v>
@@ -43514,10 +43511,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>1022</v>
@@ -43585,10 +43582,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="T6" s="33" t="s">
         <v>1022</v>
@@ -43656,10 +43653,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>1022</v>
@@ -43722,10 +43719,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>1023</v>
@@ -43788,10 +43785,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43854,10 +43851,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -43920,10 +43917,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>1024</v>
@@ -43991,10 +43988,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="T12" s="33" t="s">
         <v>1022</v>
@@ -44062,10 +44059,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>1024</v>
@@ -44133,10 +44130,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>1025</v>
@@ -44202,10 +44199,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="T15" s="33"/>
       <c r="U15" s="11">
@@ -44274,10 +44271,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>1026</v>
@@ -44340,10 +44337,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="T17" s="33" t="s">
         <v>1027</v>
@@ -44406,10 +44403,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>1024</v>
@@ -44472,10 +44469,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>1028</v>
@@ -44538,10 +44535,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="T20" s="33" t="s">
         <v>1022</v>
@@ -44604,10 +44601,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>1021</v>
@@ -44670,10 +44667,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="11">
@@ -44734,10 +44731,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="11">
@@ -44801,10 +44798,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="11">
@@ -44873,10 +44870,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="T25" s="33" t="s">
         <v>1029</v>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1832">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7879,6 +7879,34 @@
   </si>
   <si>
     <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1880万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7957,7 +7985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8060,6 +8088,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8103,7 +8137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8357,6 +8391,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10765,13 +10805,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN492"/>
+  <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W402" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y415" sqref="Y415:Z420"/>
+      <selection pane="bottomRight" activeCell="N494" sqref="N494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42152,6 +42192,168 @@
         <v>1</v>
       </c>
       <c r="AM492" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:39">
+      <c r="A493" s="19">
+        <v>492</v>
+      </c>
+      <c r="B493" s="85">
+        <v>10409</v>
+      </c>
+      <c r="C493" s="85"/>
+      <c r="D493" s="85"/>
+      <c r="E493" s="85"/>
+      <c r="F493" s="85">
+        <v>1</v>
+      </c>
+      <c r="G493" s="85" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H493" s="85"/>
+      <c r="I493" s="85" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J493" s="85" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K493" s="85"/>
+      <c r="L493" s="85">
+        <v>-31</v>
+      </c>
+      <c r="M493" s="85">
+        <v>0</v>
+      </c>
+      <c r="N493" s="85">
+        <v>0</v>
+      </c>
+      <c r="O493" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="P493" s="85">
+        <v>49800</v>
+      </c>
+      <c r="Q493" s="85" t="s">
+        <v>1830</v>
+      </c>
+      <c r="R493" s="86" t="s">
+        <v>1831</v>
+      </c>
+      <c r="S493" s="85"/>
+      <c r="T493" s="85"/>
+      <c r="U493" s="85"/>
+      <c r="V493" s="85"/>
+      <c r="W493" s="85" t="s">
+        <v>547</v>
+      </c>
+      <c r="X493" s="85">
+        <v>9999999</v>
+      </c>
+      <c r="Y493" s="85">
+        <v>1609200000</v>
+      </c>
+      <c r="Z493" s="85">
+        <v>1609775999</v>
+      </c>
+      <c r="AA493" s="85"/>
+      <c r="AB493" s="85"/>
+      <c r="AC493" s="85"/>
+      <c r="AD493" s="85"/>
+      <c r="AE493" s="85"/>
+      <c r="AF493" s="85"/>
+      <c r="AG493" s="85"/>
+      <c r="AH493" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39">
+      <c r="A494" s="19">
+        <v>493</v>
+      </c>
+      <c r="B494" s="85">
+        <v>10410</v>
+      </c>
+      <c r="C494" s="85"/>
+      <c r="D494" s="85"/>
+      <c r="E494" s="85"/>
+      <c r="F494" s="85">
+        <v>1</v>
+      </c>
+      <c r="G494" s="85" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H494" s="85"/>
+      <c r="I494" s="85" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J494" s="85" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K494" s="85"/>
+      <c r="L494" s="85">
+        <v>-31</v>
+      </c>
+      <c r="M494" s="85">
+        <v>0</v>
+      </c>
+      <c r="N494" s="85">
+        <v>0</v>
+      </c>
+      <c r="O494" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="P494" s="85">
+        <v>99800</v>
+      </c>
+      <c r="Q494" s="85" t="s">
+        <v>1830</v>
+      </c>
+      <c r="R494" s="86" t="s">
+        <v>1831</v>
+      </c>
+      <c r="S494" s="85"/>
+      <c r="T494" s="85"/>
+      <c r="U494" s="85"/>
+      <c r="V494" s="85"/>
+      <c r="W494" s="85" t="s">
+        <v>547</v>
+      </c>
+      <c r="X494" s="85">
+        <v>9999999</v>
+      </c>
+      <c r="Y494" s="85">
+        <v>1609200000</v>
+      </c>
+      <c r="Z494" s="85">
+        <v>1609775999</v>
+      </c>
+      <c r="AA494" s="85"/>
+      <c r="AB494" s="85"/>
+      <c r="AC494" s="85"/>
+      <c r="AD494" s="85"/>
+      <c r="AE494" s="85"/>
+      <c r="AF494" s="85"/>
+      <c r="AG494" s="85"/>
+      <c r="AH494" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="85">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1833">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7906,7 +7906,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>18800000</t>
+    <t>18800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10808,10 +10812,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N494" sqref="N494"/>
+      <selection pane="bottomRight" activeCell="R494" sqref="R494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42319,7 +42323,7 @@
         <v>1830</v>
       </c>
       <c r="R494" s="86" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="S494" s="85"/>
       <c r="T494" s="85"/>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -10801,10 +10801,10 @@
   <dimension ref="A1:AN494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G501" sqref="G501"/>
+      <selection pane="bottomRight" activeCell="X499" sqref="X499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42241,7 +42241,7 @@
         <v>546</v>
       </c>
       <c r="X493" s="85">
-        <v>9999999</v>
+        <v>200</v>
       </c>
       <c r="Y493" s="85">
         <v>1609200000</v>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1837">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7901,6 +7901,30 @@
   </si>
   <si>
     <t>"金鱼玩偶",</t>
+  </si>
+  <si>
+    <t>VIP11礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万金币","水滴*30","玩具锤*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88880000,30,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万金币","水滴*40","玩具锤*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10798,13 +10822,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN494"/>
+  <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H479" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X499" sqref="X499"/>
+      <selection pane="bottomRight" activeCell="J485" sqref="J485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42350,6 +42374,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="495" spans="1:39">
+      <c r="A495" s="43">
+        <v>494</v>
+      </c>
+      <c r="B495" s="43">
+        <v>10411</v>
+      </c>
+      <c r="C495" s="43"/>
+      <c r="D495" s="43"/>
+      <c r="E495" s="43"/>
+      <c r="F495" s="43">
+        <v>1</v>
+      </c>
+      <c r="G495" s="43" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H495" s="43"/>
+      <c r="I495" s="43"/>
+      <c r="J495" s="43" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K495" s="43"/>
+      <c r="L495" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M495" s="43">
+        <v>0</v>
+      </c>
+      <c r="N495" s="43">
+        <v>0</v>
+      </c>
+      <c r="O495" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="P495" s="43">
+        <v>79800</v>
+      </c>
+      <c r="Q495" s="43" t="s">
+        <v>1689</v>
+      </c>
+      <c r="R495" s="47" t="s">
+        <v>1833</v>
+      </c>
+      <c r="S495" s="43"/>
+      <c r="T495" s="43"/>
+      <c r="U495" s="43"/>
+      <c r="V495" s="43"/>
+      <c r="W495" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="X495" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y495" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z495" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA495" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB495" s="43"/>
+      <c r="AC495" s="43"/>
+      <c r="AD495" s="43"/>
+      <c r="AE495" s="43"/>
+      <c r="AF495" s="43"/>
+      <c r="AG495" s="43"/>
+      <c r="AH495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ495" s="43"/>
+      <c r="AK495" s="43"/>
+      <c r="AL495" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39">
+      <c r="A496" s="43">
+        <v>495</v>
+      </c>
+      <c r="B496" s="43">
+        <v>10412</v>
+      </c>
+      <c r="C496" s="43"/>
+      <c r="D496" s="43"/>
+      <c r="E496" s="43"/>
+      <c r="F496" s="43">
+        <v>1</v>
+      </c>
+      <c r="G496" s="43" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H496" s="43"/>
+      <c r="I496" s="43"/>
+      <c r="J496" s="43" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K496" s="43"/>
+      <c r="L496" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M496" s="43">
+        <v>0</v>
+      </c>
+      <c r="N496" s="43">
+        <v>0</v>
+      </c>
+      <c r="O496" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="P496" s="43">
+        <v>89800</v>
+      </c>
+      <c r="Q496" s="43" t="s">
+        <v>1689</v>
+      </c>
+      <c r="R496" s="47" t="s">
+        <v>1836</v>
+      </c>
+      <c r="S496" s="43"/>
+      <c r="T496" s="43"/>
+      <c r="U496" s="43"/>
+      <c r="V496" s="43"/>
+      <c r="W496" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="X496" s="43">
+        <v>99999999</v>
+      </c>
+      <c r="Y496" s="43">
+        <v>1592263800</v>
+      </c>
+      <c r="Z496" s="43">
+        <v>2552233600</v>
+      </c>
+      <c r="AA496" s="43">
+        <v>14</v>
+      </c>
+      <c r="AB496" s="43"/>
+      <c r="AC496" s="43"/>
+      <c r="AD496" s="43"/>
+      <c r="AE496" s="43"/>
+      <c r="AF496" s="43"/>
+      <c r="AG496" s="43"/>
+      <c r="AH496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ496" s="43"/>
+      <c r="AK496" s="43"/>
+      <c r="AL496" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42362,7 +42552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1836">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6256,14 +6256,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>（v4-v10）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7924,6 +7916,10 @@
   </si>
   <si>
     <t>98880000,40,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费、新玩家</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8786,7 +8782,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>685</v>
@@ -8813,16 +8809,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E4" s="53" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>1452</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1454</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -10825,10 +10821,10 @@
   <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H479" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="I410" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J485" sqref="J485"/>
+      <selection pane="bottomRight" activeCell="I417" sqref="I417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10841,7 +10837,7 @@
     <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="29" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="63.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="17.75" style="6" customWidth="1"/>
     <col min="12" max="12" width="22" style="6" customWidth="1"/>
@@ -10894,7 +10890,7 @@
         <v>502</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1213</v>
@@ -14685,10 +14681,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H67" s="72" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="L67" s="72">
         <v>-4</v>
@@ -14709,7 +14705,7 @@
         <v>87</v>
       </c>
       <c r="R67" s="73" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="W67" s="72" t="s">
         <v>546</v>
@@ -14747,7 +14743,7 @@
         <v>233</v>
       </c>
       <c r="H68" s="72" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="L68" s="72">
         <v>-4</v>
@@ -14768,7 +14764,7 @@
         <v>87</v>
       </c>
       <c r="R68" s="73" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="W68" s="72" t="s">
         <v>546</v>
@@ -14806,7 +14802,7 @@
         <v>235</v>
       </c>
       <c r="H69" s="72" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="L69" s="72">
         <v>-4</v>
@@ -14827,7 +14823,7 @@
         <v>87</v>
       </c>
       <c r="R69" s="73" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="W69" s="72" t="s">
         <v>546</v>
@@ -14865,7 +14861,7 @@
         <v>237</v>
       </c>
       <c r="H70" s="72" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="L70" s="72">
         <v>-4</v>
@@ -14924,7 +14920,7 @@
         <v>238</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="L71" s="72">
         <v>-4</v>
@@ -14945,7 +14941,7 @@
         <v>87</v>
       </c>
       <c r="R71" s="73" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="W71" s="72" t="s">
         <v>546</v>
@@ -15279,7 +15275,7 @@
         <v>244</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15300,7 +15296,7 @@
         <v>501</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>546</v>
@@ -15318,10 +15314,10 @@
         <v>87</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15344,7 +15340,7 @@
         <v>245</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15365,7 +15361,7 @@
         <v>501</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>546</v>
@@ -15383,10 +15379,10 @@
         <v>87</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AD78" s="39" t="s">
         <v>1723</v>
-      </c>
-      <c r="AD78" s="39" t="s">
-        <v>1725</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15542,7 +15538,7 @@
         <v>248</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15563,7 +15559,7 @@
         <v>501</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>546</v>
@@ -15581,10 +15577,10 @@
         <v>606</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AD81" s="39" t="s">
         <v>1724</v>
-      </c>
-      <c r="AD81" s="39" t="s">
-        <v>1726</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -18308,7 +18304,7 @@
         <v>328</v>
       </c>
       <c r="H128" s="72" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="L128" s="72">
         <v>-10</v>
@@ -18329,7 +18325,7 @@
         <v>87</v>
       </c>
       <c r="R128" s="73" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="W128" s="72" t="s">
         <v>546</v>
@@ -18367,7 +18363,7 @@
         <v>536</v>
       </c>
       <c r="H129" s="72" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="L129" s="72">
         <v>-11</v>
@@ -18388,7 +18384,7 @@
         <v>87</v>
       </c>
       <c r="R129" s="73" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="W129" s="72" t="s">
         <v>546</v>
@@ -20993,7 +20989,7 @@
         <v>1226</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21061,7 +21057,7 @@
         <v>1228</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21129,7 +21125,7 @@
         <v>1229</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21197,7 +21193,7 @@
         <v>1231</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21265,7 +21261,7 @@
         <v>1232</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21333,7 +21329,7 @@
         <v>1233</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21401,7 +21397,7 @@
         <v>1234</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21469,7 +21465,7 @@
         <v>1235</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21537,7 +21533,7 @@
         <v>1236</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21605,7 +21601,7 @@
         <v>1238</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21673,7 +21669,7 @@
         <v>1239</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21741,7 +21737,7 @@
         <v>1240</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -21809,7 +21805,7 @@
         <v>1241</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -21877,7 +21873,7 @@
         <v>1242</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -21945,7 +21941,7 @@
         <v>1244</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -27670,7 +27666,7 @@
         <v>539</v>
       </c>
       <c r="H273" s="76" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="L273" s="76">
         <v>-10</v>
@@ -27691,7 +27687,7 @@
         <v>87</v>
       </c>
       <c r="R273" s="78" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="W273" s="76" t="s">
         <v>546</v>
@@ -30337,7 +30333,7 @@
         <v>814</v>
       </c>
       <c r="W315" s="5" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="X315" s="5">
         <v>9999999</v>
@@ -30372,10 +30368,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="L316" s="5">
         <v>-31</v>
@@ -30434,10 +30430,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J317" s="5" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="L317" s="5">
         <v>-31</v>
@@ -30496,10 +30492,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="L318" s="5">
         <v>-31</v>
@@ -30797,7 +30793,7 @@
         <v>1054</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -30862,7 +30858,7 @@
         <v>1049</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -30927,7 +30923,7 @@
         <v>1050</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31119,7 +31115,7 @@
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31138,7 +31134,7 @@
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R328" s="47" t="s">
         <v>1085</v>
@@ -31202,7 +31198,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31221,10 +31217,10 @@
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R329" s="47" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
@@ -31285,7 +31281,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31304,10 +31300,10 @@
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R330" s="47" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
@@ -31368,7 +31364,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31387,10 +31383,10 @@
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R331" s="47" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
@@ -31451,7 +31447,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31470,10 +31466,10 @@
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R332" s="47" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
@@ -31534,7 +31530,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31553,10 +31549,10 @@
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R333" s="47" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
@@ -31617,7 +31613,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31636,10 +31632,10 @@
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R334" s="47" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
@@ -31700,7 +31696,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -31719,10 +31715,10 @@
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R335" s="47" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
@@ -31783,7 +31779,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -31802,10 +31798,10 @@
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R336" s="47" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
@@ -31866,7 +31862,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -31885,10 +31881,10 @@
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R337" s="47" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
@@ -33039,7 +33035,7 @@
         <v>1215</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33107,7 +33103,7 @@
         <v>1217</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33175,7 +33171,7 @@
         <v>1217</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33243,7 +33239,7 @@
         <v>1218</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33311,7 +33307,7 @@
         <v>1218</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33379,7 +33375,7 @@
         <v>1218</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33447,7 +33443,7 @@
         <v>1219</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33515,7 +33511,7 @@
         <v>1219</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33583,7 +33579,7 @@
         <v>1219</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33651,7 +33647,7 @@
         <v>1217</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -33725,7 +33721,7 @@
         <v>1220</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -33799,7 +33795,7 @@
         <v>1219</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34148,7 +34144,7 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="R369" s="10" t="s">
         <v>1261</v>
@@ -36075,7 +36071,7 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="R398" s="10" t="s">
         <v>1360</v>
@@ -36698,7 +36694,7 @@
         <v>1401</v>
       </c>
       <c r="J408" s="5" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="L408" s="5">
         <v>-31</v>
@@ -36719,7 +36715,7 @@
         <v>1411</v>
       </c>
       <c r="R408" s="10" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="W408" s="5" t="s">
         <v>1412</v>
@@ -36784,7 +36780,7 @@
         <v>1411</v>
       </c>
       <c r="R409" s="10" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="W409" s="5" t="s">
         <v>1413</v>
@@ -36914,7 +36910,7 @@
         <v>1411</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="W411" s="5" t="s">
         <v>1414</v>
@@ -36979,7 +36975,7 @@
         <v>1411</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="W412" s="5" t="s">
         <v>1415</v>
@@ -37023,7 +37019,7 @@
         <v>1406</v>
       </c>
       <c r="J413" s="5" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="L413" s="5">
         <v>-31</v>
@@ -37044,7 +37040,7 @@
         <v>1411</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="W413" s="5" t="s">
         <v>1413</v>
@@ -37091,7 +37087,7 @@
         <v>1417</v>
       </c>
       <c r="H414" s="72" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="L414" s="72">
         <v>-4</v>
@@ -37115,7 +37111,7 @@
         <v>1418</v>
       </c>
       <c r="W414" s="72" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="X414" s="74" t="s">
         <v>118</v>
@@ -37153,10 +37149,10 @@
         <v>1419</v>
       </c>
       <c r="I415" s="40" t="s">
-        <v>1422</v>
+        <v>1835</v>
       </c>
       <c r="J415" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L415" s="40">
         <v>-31</v>
@@ -37177,10 +37173,10 @@
         <v>1194</v>
       </c>
       <c r="R415" s="41" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="W415" s="40" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="X415" s="84" t="s">
         <v>118</v>
@@ -37221,10 +37217,10 @@
         <v>1420</v>
       </c>
       <c r="I416" s="40" t="s">
-        <v>1423</v>
+        <v>1835</v>
       </c>
       <c r="J416" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L416" s="40">
         <v>-31</v>
@@ -37245,10 +37241,10 @@
         <v>1195</v>
       </c>
       <c r="R416" s="41" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="W416" s="40" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="X416" s="84" t="s">
         <v>118</v>
@@ -37289,10 +37285,10 @@
         <v>1421</v>
       </c>
       <c r="I417" s="40" t="s">
-        <v>1423</v>
+        <v>1835</v>
       </c>
       <c r="J417" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L417" s="40">
         <v>-31</v>
@@ -37313,7 +37309,7 @@
         <v>1196</v>
       </c>
       <c r="R417" s="41" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="W417" s="40" t="s">
         <v>1203</v>
@@ -37357,10 +37353,10 @@
         <v>1419</v>
       </c>
       <c r="I418" s="40" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J418" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L418" s="40">
         <v>-31</v>
@@ -37381,7 +37377,7 @@
         <v>1197</v>
       </c>
       <c r="R418" s="41" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="W418" s="40" t="s">
         <v>1203</v>
@@ -37425,10 +37421,10 @@
         <v>1420</v>
       </c>
       <c r="I419" s="40" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J419" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L419" s="40">
         <v>-31</v>
@@ -37449,7 +37445,7 @@
         <v>1198</v>
       </c>
       <c r="R419" s="41" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="W419" s="40" t="s">
         <v>1203</v>
@@ -37493,10 +37489,10 @@
         <v>1421</v>
       </c>
       <c r="I420" s="40" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J420" s="40" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L420" s="40">
         <v>-31</v>
@@ -37517,7 +37513,7 @@
         <v>1199</v>
       </c>
       <c r="R420" s="41" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="W420" s="40" t="s">
         <v>1203</v>
@@ -37558,10 +37554,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37579,13 +37575,13 @@
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="R421" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W421" s="19" t="s">
         <v>1434</v>
-      </c>
-      <c r="R421" s="39" t="s">
-        <v>1431</v>
-      </c>
-      <c r="W421" s="19" t="s">
-        <v>1436</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37600,7 +37596,7 @@
         <v>1103</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37626,13 +37622,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="J422" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="L422" s="6">
         <v>-31</v>
@@ -37650,10 +37646,10 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="6" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="R422" s="48" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="W422" s="6" t="s">
         <v>546</v>
@@ -37694,13 +37690,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="J423" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="L423" s="6">
         <v>-31</v>
@@ -37718,10 +37714,10 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="6" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="R423" s="48" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="W423" s="6" t="s">
         <v>546</v>
@@ -37762,13 +37758,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="J424" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="L424" s="6">
         <v>-31</v>
@@ -37786,10 +37782,10 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="R424" s="48" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="W424" s="6" t="s">
         <v>546</v>
@@ -37830,10 +37826,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -37851,10 +37847,10 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="R425" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="W425" s="6" t="s">
         <v>595</v>
@@ -37886,10 +37882,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -37907,10 +37903,10 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="R426" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="W426" s="6" t="s">
         <v>595</v>
@@ -37942,10 +37938,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -37963,10 +37959,10 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="R427" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="W427" s="6" t="s">
         <v>595</v>
@@ -37998,10 +37994,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38019,10 +38015,10 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="R428" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="W428" s="6" t="s">
         <v>595</v>
@@ -38054,10 +38050,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38075,10 +38071,10 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="R429" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="W429" s="6" t="s">
         <v>595</v>
@@ -38110,13 +38106,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38134,13 +38130,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
+        <v>1456</v>
+      </c>
+      <c r="R430" s="47" t="s">
+        <v>1457</v>
+      </c>
+      <c r="W430" s="43" t="s">
         <v>1458</v>
-      </c>
-      <c r="R430" s="47" t="s">
-        <v>1459</v>
-      </c>
-      <c r="W430" s="43" t="s">
-        <v>1460</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38178,13 +38174,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38202,10 +38198,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R431" s="47" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>549</v>
@@ -38246,13 +38242,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I432" s="43" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38270,10 +38266,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R432" s="47" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>549</v>
@@ -38314,13 +38310,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38338,10 +38334,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="R433" s="47" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>549</v>
@@ -38382,13 +38378,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J434" s="5" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="L434" s="5">
         <v>-31</v>
@@ -38406,10 +38402,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="5" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="R434" s="10" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="W434" s="5" t="s">
         <v>549</v>
@@ -38447,13 +38443,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J435" s="5" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="L435" s="5">
         <v>-31</v>
@@ -38471,10 +38467,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="5" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="R435" s="10" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="W435" s="5" t="s">
         <v>549</v>
@@ -38512,13 +38508,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J436" s="5" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="L436" s="5">
         <v>-31</v>
@@ -38536,10 +38532,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="5" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="R436" s="10" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="W436" s="5" t="s">
         <v>549</v>
@@ -38577,13 +38573,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="L437" s="5">
         <v>-31</v>
@@ -38601,10 +38597,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="5" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="R437" s="10" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="W437" s="5" t="s">
         <v>549</v>
@@ -38642,13 +38638,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L438" s="5">
         <v>-31</v>
@@ -38666,10 +38662,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="5" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R438" s="10" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="W438" s="5" t="s">
         <v>549</v>
@@ -38707,13 +38703,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J439" s="5" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="L439" s="5">
         <v>-31</v>
@@ -38731,10 +38727,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="5" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="R439" s="10" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="W439" s="5" t="s">
         <v>549</v>
@@ -38772,13 +38768,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J440" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="L440" s="5">
         <v>-31</v>
@@ -38790,19 +38786,19 @@
         <v>0</v>
       </c>
       <c r="O440" s="5" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="P440" s="5">
         <v>99800</v>
       </c>
       <c r="Q440" s="5" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="R440" s="10" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="W440" s="5" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="X440" s="5">
         <v>9999999</v>
@@ -38837,10 +38833,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="J441" s="5" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="L441" s="5">
         <v>-31</v>
@@ -38858,13 +38854,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R441" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="R441" s="10" t="s">
-        <v>1522</v>
-      </c>
       <c r="W441" s="5" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X441" s="5">
         <v>9999999</v>
@@ -38899,10 +38895,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="J442" s="5" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="L442" s="5">
         <v>-31</v>
@@ -38920,13 +38916,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="5" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R442" s="10" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X442" s="5">
         <v>9999999</v>
@@ -38961,10 +38957,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="J443" s="5" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="L443" s="5">
         <v>-31</v>
@@ -38982,13 +38978,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="5" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R443" s="10" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="W443" s="5" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X443" s="5">
         <v>9999999</v>
@@ -39023,10 +39019,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="J444" s="5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="L444" s="5">
         <v>-31</v>
@@ -39044,13 +39040,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="5" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R444" s="10" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X444" s="5">
         <v>9999999</v>
@@ -39085,10 +39081,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="J445" s="5" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="L445" s="5">
         <v>-31</v>
@@ -39106,13 +39102,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="5" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R445" s="10" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="W445" s="5" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="X445" s="5">
         <v>9999999</v>
@@ -39147,10 +39143,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="J446" s="5" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="L446" s="5">
         <v>-31</v>
@@ -39168,13 +39164,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="5" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="R446" s="10" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="W446" s="5" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="X446" s="5">
         <v>9999999</v>
@@ -39209,13 +39205,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="J447" s="54" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="L447" s="54">
         <v>-31</v>
@@ -39233,10 +39229,10 @@
         <v>800</v>
       </c>
       <c r="Q447" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R447" s="55" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="W447" s="5" t="s">
         <v>593</v>
@@ -39277,13 +39273,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="J448" s="54" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="L448" s="54">
         <v>-31</v>
@@ -39301,10 +39297,10 @@
         <v>800</v>
       </c>
       <c r="Q448" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R448" s="55" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="W448" s="5" t="s">
         <v>593</v>
@@ -39342,13 +39338,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="J449" s="54" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="L449" s="54">
         <v>-31</v>
@@ -39366,10 +39362,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R449" s="55" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>549</v>
@@ -39410,13 +39406,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="64" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="J450" s="64" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="L450" s="64">
         <v>-31</v>
@@ -39434,10 +39430,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R450" s="65" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>549</v>
@@ -39478,13 +39474,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="64" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="J451" s="64" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="L451" s="64">
         <v>-31</v>
@@ -39502,10 +39498,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R451" s="65" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>549</v>
@@ -39543,13 +39539,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="64" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="J452" s="64" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="L452" s="64">
         <v>-31</v>
@@ -39567,10 +39563,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R452" s="65" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>549</v>
@@ -39611,13 +39607,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="J453" s="54" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="L453" s="54">
         <v>-31</v>
@@ -39635,10 +39631,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R453" s="55" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>549</v>
@@ -39679,13 +39675,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="J454" s="54" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="L454" s="54">
         <v>-31</v>
@@ -39703,10 +39699,10 @@
         <v>9800</v>
       </c>
       <c r="Q454" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R454" s="55" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>549</v>
@@ -39744,13 +39740,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="J455" s="54" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="L455" s="54">
         <v>-31</v>
@@ -39768,10 +39764,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R455" s="55" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>549</v>
@@ -39812,13 +39808,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="64" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="J456" s="64" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="L456" s="64">
         <v>-31</v>
@@ -39836,10 +39832,10 @@
         <v>19800</v>
       </c>
       <c r="Q456" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R456" s="65" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>549</v>
@@ -39880,13 +39876,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="64" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="J457" s="64" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="L457" s="64">
         <v>-31</v>
@@ -39904,10 +39900,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R457" s="65" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>549</v>
@@ -39945,13 +39941,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="64" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="J458" s="64" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="L458" s="64">
         <v>-31</v>
@@ -39969,10 +39965,10 @@
         <v>19800</v>
       </c>
       <c r="Q458" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R458" s="65" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>549</v>
@@ -40013,13 +40009,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="J459" s="54" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="L459" s="54">
         <v>-31</v>
@@ -40037,10 +40033,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R459" s="55" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>549</v>
@@ -40081,13 +40077,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="J460" s="54" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="L460" s="54">
         <v>-31</v>
@@ -40105,10 +40101,10 @@
         <v>49800</v>
       </c>
       <c r="Q460" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R460" s="55" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>549</v>
@@ -40146,13 +40142,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="J461" s="54" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="L461" s="54">
         <v>-31</v>
@@ -40170,10 +40166,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R461" s="55" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>549</v>
@@ -40214,13 +40210,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="64" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="J462" s="64" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="L462" s="64">
         <v>-31</v>
@@ -40238,10 +40234,10 @@
         <v>99800</v>
       </c>
       <c r="Q462" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R462" s="65" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>549</v>
@@ -40282,13 +40278,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="64" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="J463" s="64" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="L463" s="64">
         <v>-31</v>
@@ -40306,13 +40302,13 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R463" s="65" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="W463" s="5" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="X463" s="64">
         <v>9999999</v>
@@ -40347,13 +40343,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="64" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J464" s="64" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="L464" s="64">
         <v>-31</v>
@@ -40371,10 +40367,10 @@
         <v>99800</v>
       </c>
       <c r="Q464" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R464" s="65" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>549</v>
@@ -40415,13 +40411,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="J465" s="54" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="L465" s="54">
         <v>-31</v>
@@ -40439,10 +40435,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R465" s="55" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>549</v>
@@ -40483,13 +40479,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="J466" s="54" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L466" s="54">
         <v>-31</v>
@@ -40507,10 +40503,10 @@
         <v>249800</v>
       </c>
       <c r="Q466" s="54" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="R466" s="55" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>549</v>
@@ -40548,13 +40544,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="J467" s="54" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="L467" s="54">
         <v>-31</v>
@@ -40572,10 +40568,10 @@
         <v>249800</v>
       </c>
       <c r="Q467" s="54" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="R467" s="55" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>549</v>
@@ -40616,13 +40612,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I468" s="58" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J468" s="58" t="s">
         <v>1588</v>
-      </c>
-      <c r="J468" s="58" t="s">
-        <v>1590</v>
       </c>
       <c r="L468" s="58">
         <v>-31</v>
@@ -40640,13 +40636,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R468" s="59" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="W468" s="58" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="X468" s="58">
         <v>9999999</v>
@@ -40681,13 +40677,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J469" s="58" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="L469" s="58">
         <v>-31</v>
@@ -40705,13 +40701,13 @@
         <v>3000</v>
       </c>
       <c r="Q469" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R469" s="59" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="W469" s="58" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="X469" s="58">
         <v>9999999</v>
@@ -40746,13 +40742,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I470" s="58" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J470" s="58" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="L470" s="58">
         <v>-31</v>
@@ -40770,13 +40766,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R470" s="59" t="s">
         <v>841</v>
       </c>
       <c r="W470" s="58" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="X470" s="58">
         <v>9999999</v>
@@ -40811,13 +40807,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="58" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="I471" s="58" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J471" s="58" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="L471" s="58">
         <v>-31</v>
@@ -40835,13 +40831,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R471" s="59" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="W471" s="58" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X471" s="58">
         <v>9999999</v>
@@ -40876,13 +40872,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="58" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="I472" s="58" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J472" s="58" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="L472" s="58">
         <v>-31</v>
@@ -40900,13 +40896,13 @@
         <v>19800</v>
       </c>
       <c r="Q472" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R472" s="59" t="s">
         <v>842</v>
       </c>
       <c r="W472" s="58" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X472" s="58">
         <v>9999999</v>
@@ -40941,13 +40937,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="58" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="I473" s="58" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J473" s="58" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="L473" s="58">
         <v>-31</v>
@@ -40965,13 +40961,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R473" s="59" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="W473" s="58" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X473" s="58">
         <v>9999999</v>
@@ -41006,13 +41002,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="68" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="I474" s="68" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="J474" s="68" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="L474" s="68">
         <v>-31</v>
@@ -41030,13 +41026,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="68" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R474" s="69" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="W474" s="68" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X474" s="68">
         <v>9999999</v>
@@ -41071,13 +41067,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="68" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I475" s="68" t="s">
         <v>1587</v>
       </c>
-      <c r="I475" s="68" t="s">
-        <v>1589</v>
-      </c>
       <c r="J475" s="68" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="L475" s="68">
         <v>-31</v>
@@ -41089,19 +41085,19 @@
         <v>0</v>
       </c>
       <c r="O475" s="68" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="P475" s="68">
         <v>249800</v>
       </c>
       <c r="Q475" s="68" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="R475" s="69" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="W475" s="68" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="X475" s="68">
         <v>9999999</v>
@@ -41136,13 +41132,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="I476" s="70" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="J476" s="70" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="L476" s="70">
         <v>-31</v>
@@ -41154,19 +41150,19 @@
         <v>0</v>
       </c>
       <c r="O476" s="70" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="P476" s="70">
         <v>49800</v>
       </c>
       <c r="Q476" s="70" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="R476" s="71" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="W476" s="70" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="X476" s="70">
         <v>9999999</v>
@@ -41201,13 +41197,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I477" s="70" t="s">
         <v>1665</v>
       </c>
-      <c r="I477" s="70" t="s">
-        <v>1667</v>
-      </c>
       <c r="J477" s="70" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="L477" s="70">
         <v>-31</v>
@@ -41219,19 +41215,19 @@
         <v>0</v>
       </c>
       <c r="O477" s="70" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="P477" s="70">
         <v>19800</v>
       </c>
       <c r="Q477" s="70" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="R477" s="71" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="W477" s="70" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="X477" s="70">
         <v>9999999</v>
@@ -41266,13 +41262,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="J478" s="70" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="L478" s="70">
         <v>-31</v>
@@ -41284,16 +41280,16 @@
         <v>0</v>
       </c>
       <c r="O478" s="70" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="P478" s="70">
         <v>9800</v>
       </c>
       <c r="Q478" s="70" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="R478" s="71" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="W478" s="70" t="s">
         <v>549</v>
@@ -41331,13 +41327,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="J479" s="70" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="L479" s="70">
         <v>-31</v>
@@ -41355,13 +41351,13 @@
         <v>4800</v>
       </c>
       <c r="Q479" s="70" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="R479" s="71" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="W479" s="70" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="X479" s="70">
         <v>9999999</v>
@@ -41396,10 +41392,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="81" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J480" s="81" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="L480" s="81">
         <v>-31</v>
@@ -41417,13 +41413,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R480" s="82" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="W480" s="81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X480" s="81">
         <v>9999999</v>
@@ -41461,7 +41457,7 @@
         <v>364</v>
       </c>
       <c r="J481" s="81" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="L481" s="81">
         <v>-31</v>
@@ -41479,13 +41475,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R481" s="82" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="W481" s="81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X481" s="81">
         <v>9999999</v>
@@ -41523,7 +41519,7 @@
         <v>363</v>
       </c>
       <c r="J482" s="81" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="L482" s="81">
         <v>-31</v>
@@ -41541,13 +41537,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R482" s="82" t="s">
         <v>1360</v>
       </c>
       <c r="W482" s="81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X482" s="81">
         <v>9999999</v>
@@ -41585,7 +41581,7 @@
         <v>362</v>
       </c>
       <c r="J483" s="81" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="L483" s="81">
         <v>-31</v>
@@ -41603,13 +41599,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R483" s="82" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="W483" s="81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="X483" s="81">
         <v>9999999</v>
@@ -41644,10 +41640,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="81" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J484" s="81" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="L484" s="81">
         <v>-31</v>
@@ -41665,10 +41661,10 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R484" s="82" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="W484" s="81" t="s">
         <v>593</v>
@@ -41706,10 +41702,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="81" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J485" s="81" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="L485" s="81">
         <v>-31</v>
@@ -41727,10 +41723,10 @@
         <v>600</v>
       </c>
       <c r="Q485" s="81" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="R485" s="82" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="W485" s="81" t="s">
         <v>593</v>
@@ -41771,10 +41767,10 @@
         <v>1378</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -41792,7 +41788,7 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="R486" s="39" t="s">
         <v>1392</v>
@@ -41836,10 +41832,10 @@
         <v>1376</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -41857,7 +41853,7 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="R487" s="39" t="s">
         <v>1388</v>
@@ -41901,10 +41897,10 @@
         <v>1375</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -41922,7 +41918,7 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R488" s="39" t="s">
         <v>1393</v>
@@ -41966,10 +41962,10 @@
         <v>1373</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -41987,7 +41983,7 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R489" s="39" t="s">
         <v>1387</v>
@@ -42031,10 +42027,10 @@
         <v>1370</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42052,7 +42048,7 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R490" s="39" t="s">
         <v>1394</v>
@@ -42093,13 +42089,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42117,7 +42113,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="R491" s="39" t="s">
         <v>1389</v>
@@ -42161,10 +42157,10 @@
         <v>1365</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42182,7 +42178,7 @@
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="R492" s="39" t="s">
         <v>1390</v>
@@ -42226,14 +42222,14 @@
         <v>1</v>
       </c>
       <c r="G493" s="85" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H493" s="85"/>
       <c r="I493" s="85" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J493" s="85" t="s">
         <v>1818</v>
-      </c>
-      <c r="J493" s="85" t="s">
-        <v>1820</v>
       </c>
       <c r="K493" s="85"/>
       <c r="L493" s="85">
@@ -42252,10 +42248,10 @@
         <v>49800</v>
       </c>
       <c r="Q493" s="85" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="R493" s="86" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="S493" s="85"/>
       <c r="T493" s="85"/>
@@ -42307,14 +42303,14 @@
         <v>1</v>
       </c>
       <c r="G494" s="85" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="H494" s="85"/>
       <c r="I494" s="85" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="J494" s="85" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="K494" s="85"/>
       <c r="L494" s="85">
@@ -42333,10 +42329,10 @@
         <v>99800</v>
       </c>
       <c r="Q494" s="85" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R494" s="86" t="s">
         <v>1821</v>
-      </c>
-      <c r="R494" s="86" t="s">
-        <v>1823</v>
       </c>
       <c r="S494" s="85"/>
       <c r="T494" s="85"/>
@@ -42388,12 +42384,12 @@
         <v>1</v>
       </c>
       <c r="G495" s="43" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="H495" s="43"/>
       <c r="I495" s="43"/>
       <c r="J495" s="43" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="K495" s="43"/>
       <c r="L495" s="43">
@@ -42412,10 +42408,10 @@
         <v>79800</v>
       </c>
       <c r="Q495" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R495" s="47" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="S495" s="43"/>
       <c r="T495" s="43"/>
@@ -42471,12 +42467,12 @@
         <v>1</v>
       </c>
       <c r="G496" s="43" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="H496" s="43"/>
       <c r="I496" s="43"/>
       <c r="J496" s="43" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="K496" s="43"/>
       <c r="L496" s="43">
@@ -42495,10 +42491,10 @@
         <v>89800</v>
       </c>
       <c r="Q496" s="43" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="R496" s="47" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="S496" s="43"/>
       <c r="T496" s="43"/>
@@ -42968,7 +42964,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -43202,7 +43198,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43216,7 +43212,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43230,7 +43226,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43258,7 +43254,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -43272,7 +43268,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -43286,7 +43282,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -43300,7 +43296,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -43314,7 +43310,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -43328,7 +43324,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -43342,7 +43338,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -43356,7 +43352,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -43370,7 +43366,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -43384,7 +43380,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -43398,7 +43394,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -43412,7 +43408,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -43426,7 +43422,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -43440,7 +43436,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -43454,7 +43450,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -43468,7 +43464,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -43482,7 +43478,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -43496,7 +43492,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
@@ -43600,7 +43596,7 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>29</v>
@@ -43683,10 +43679,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="T2" s="33" t="s">
         <v>1014</v>
@@ -43754,10 +43750,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>1014</v>
@@ -43825,10 +43821,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>1015</v>
@@ -43896,10 +43892,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>1015</v>
@@ -43967,10 +43963,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="T6" s="33" t="s">
         <v>1015</v>
@@ -44038,10 +44034,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>1015</v>
@@ -44104,10 +44100,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>1016</v>
@@ -44170,10 +44166,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -44236,10 +44232,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -44302,10 +44298,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>1017</v>
@@ -44373,10 +44369,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="T12" s="33" t="s">
         <v>1015</v>
@@ -44444,10 +44440,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>1017</v>
@@ -44515,10 +44511,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>1018</v>
@@ -44584,10 +44580,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="T15" s="33"/>
       <c r="U15" s="11">
@@ -44656,10 +44652,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>1019</v>
@@ -44722,10 +44718,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="T17" s="33" t="s">
         <v>1020</v>
@@ -44788,10 +44784,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>1017</v>
@@ -44854,10 +44850,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>1021</v>
@@ -44920,10 +44916,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="T20" s="33" t="s">
         <v>1015</v>
@@ -44986,10 +44982,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>1014</v>
@@ -45052,10 +45048,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="11">
@@ -45116,10 +45112,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="11">
@@ -45183,10 +45179,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="11">
@@ -45255,10 +45251,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="T25" s="33" t="s">
         <v>1022</v>

--- a/config_12.29/shoping_config.xlsx
+++ b/config_12.29/shoping_config.xlsx
@@ -8875,8 +8875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9024,7 +9024,9 @@
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -9105,7 +9107,9 @@
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9186,7 +9190,9 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9267,7 +9273,9 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9348,7 +9356,9 @@
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9429,7 +9439,9 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9510,7 +9522,9 @@
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9591,7 +9605,9 @@
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9673,6 +9689,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9756,6 +9775,9 @@
       <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10741,6 +10763,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10821,10 +10846,10 @@
   <dimension ref="A1:AN496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I410" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="I518" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I417" sqref="I417"/>
+      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14678,7 +14703,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>1760</v>
@@ -14737,7 +14762,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>233</v>
@@ -14796,7 +14821,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>235</v>
@@ -14855,7 +14880,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>237</v>
@@ -14914,7 +14939,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>238</v>
@@ -16264,7 +16289,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>262</v>
@@ -18298,7 +18323,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>328</v>
@@ -18357,7 +18382,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>536</v>
@@ -27660,7 +27685,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>539</v>
